--- a/Task.Mobile/Amazon.xlsx
+++ b/Task.Mobile/Amazon.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Mobilluck" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
-  <si>
-    <t>Перевірка фокусування камери по дотику</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -233,54 +230,15 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>Check if the filter options are visible or not for 0 search results.</t>
-  </si>
-  <si>
-    <t>Check if the filter options are visible if the database errors are thrown in search results.</t>
-  </si>
-  <si>
-    <t>Check if all the filter options are available.</t>
-  </si>
-  <si>
-    <t>Check the if the filtering of result work per option.</t>
-  </si>
-  <si>
-    <t>Check if the filtering is unresponsive for any specific option.</t>
-  </si>
-  <si>
-    <t>Check if the filtering leads to wrong results.</t>
-  </si>
-  <si>
     <t>Check if the filtering is allowed to edit.</t>
   </si>
   <si>
-    <t>Verify if the filter has the custom criteria addition filter option.</t>
-  </si>
-  <si>
     <t>Check if the search options are resulting in the search results that are relevant.</t>
   </si>
   <si>
-    <t>Check if the search filter options don’t overshadow the existing results in view.</t>
-  </si>
-  <si>
-    <t>Check if the search filter allows typo correction.</t>
-  </si>
-  <si>
     <t>Check if the search filter is available on all the pages of search result.</t>
   </si>
   <si>
-    <t>Check if the filter option once applied can be hidden.</t>
-  </si>
-  <si>
-    <t>Verify if the filter options allow the sorting through keywords.</t>
-  </si>
-  <si>
-    <t>Verify if the filter options can be deleted.</t>
-  </si>
-  <si>
-    <t>Verify if the filter options allow sorting through relevance.</t>
-  </si>
-  <si>
     <t>Check how many results are notified before and after filter options is available.</t>
   </si>
   <si>
@@ -291,632 +249,6 @@
   </si>
   <si>
     <t>Check if the website allows adding all necessary filter options before searching.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify if the filter options allow sorting through price </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Low to High)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Georgia"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select several filter options
-3. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Look at the amount of smartphones at the bottom of the page
-2. Tap on the filter icon
-3. Select several filter options
-4. Tap on the "Submit" button
-5. Compare the amount of smartphones before and after filtering.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select several filter options
-3. Tap on the "Submit" button
-4. Select several filter options
-5. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select "Sort by High to Low"
-3. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select "Sort by Low to High"
-3. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select "Sort by Relevance"
-3. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <t>Verify if the filter options allow sorting through name.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select "Sort by Name"
-3. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select several filter options
-3. Tap on the "Submit" button
-4. Tap on the filter icon
-5. Uncheck the previously selected filter parameters
-6. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select several filter options
-3. Tap on the "Submit" button
-4. Tap on the "Delete all filters" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select several filter options
-3. Tap on the "Submit" button
-4. Compare search criteria with search result</t>
-    </r>
-  </si>
-  <si>
-    <t>1. The filter page shoud be opened
-2. Selected filters should be add to the filter criterias
-3. The search result should be displayed on the display</t>
   </si>
   <si>
     <t>1. The amount of smartphones at the bottom of the page should be displayed.
@@ -924,12 +256,6 @@
 3. Selected filters should be add to the filter criterias
 4. The search result should be displayed on the display.
 5. The amount of smartphones before and after filtering should be different according to selected criterias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The filter page shoud be opened
-2. Selected filters should be add to the filter criterias
-3. The search result should be displayed on the display.
-</t>
   </si>
   <si>
     <t>1. The filter page should be opened
@@ -1568,6 +894,15 @@
 3. Tap on the "Submit" button
 4. Compare search criteria with search result</t>
     </r>
+  </si>
+  <si>
+    <t>OS: Android 7.1.2 Nougat</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Verify if all the filter options can be deleted.</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1005,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1708,25 +1043,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1750,9 +1072,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1768,10 +1087,6 @@
     <xf numFmtId="22" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1780,6 +1095,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2064,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,28 +1403,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>40</v>
+      <c r="H1" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2111,245 +1432,267 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3">
         <v>43366.470833333333</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3">
         <v>43366.475694444445</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3">
         <v>43366.480555613423</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
         <v>43366.485416782409</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3">
         <v>43366.490277951387</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3">
         <v>43366.495139120372</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3">
         <v>43366.50000028935</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3">
         <v>43366.504861458336</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3">
         <v>43366.509722685187</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3">
         <v>43366.514583912038</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="17"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2436,335 +1779,359 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="102" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13">
+        <v>43366.470833333333</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="13">
+        <v>43366.475694444445</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="14">
-        <v>43366.470833333333</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="C4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="13">
+        <v>43366.480555613423</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13">
+        <v>43366.485416782409</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13">
+        <v>43366.490277951387</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="13">
+        <v>43366.495139120372</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="13">
+        <v>43366.50000028935</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13">
+        <v>43366.504861458336</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="B10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="13">
+        <v>43366.509722685187</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13">
+        <v>43366.514583912038</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="14">
-        <v>43366.475694444445</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="14">
-        <v>43366.480555613423</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="14">
-        <v>43366.485416782409</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="14">
-        <v>43366.490277951387</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="14">
-        <v>43366.495139120372</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="14">
-        <v>43366.50000028935</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="13">
+        <v>43366.519445138889</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="14">
-        <v>43366.504861458336</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="15"/>
-    </row>
-    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="14">
-        <v>43366.509722685187</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="14">
-        <v>43366.514583912038</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="14">
-        <v>43366.519445138889</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="13">
         <v>43366.52430636574</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="15"/>
+      <c r="G13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Task.Mobile/Amazon.xlsx
+++ b/Task.Mobile/Amazon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8925"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -323,6 +323,87 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Verify if the filter options allow sorting through price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Low to High)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify if the filter options allow sorting through price </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(High to Low)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify if the filter options allow sorting through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>name.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Verify if the filter options allow sorting through </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>relevance.</t>
+    </r>
+  </si>
+  <si>
+    <t>OS: Android 7.1.2 Nougat</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Verify if all the filter options can be deleted.</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -338,7 +419,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -358,6 +439,256 @@
       </rPr>
       <t xml:space="preserve">
 1. Tap on the filter icon
+2. Select "Sort by Relevance"
+3. Tap on the "Submit" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Tap on the filter icon
+2. Tap on the "Submit" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Tap on the filter icon on the "Smartphones" page
+2. Select "Sort by Name"
+3. Tap on the "Submit" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Tap on the filter icon on the "Smartphones" page
+2. Select several filter options
+3. Tap on the "Submit" button
+4. Tap on the filter icon
+5. Uncheck the previously selected filter parameters
+6. Tap on the "Submit" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Tap on the filter icon on the "Smartphones" page
+2. Select several filter options
+3. Tap on the "Submit" button
+4. Go to a few different pages in the search</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Tap on the filter icon on the "Smartphones" page
+2. Select several filter options
+3. Tap on the "Submit" button
+4. Compare search criteria with search result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Tap on the filter icon on the "Smartphones" page
 2. Select several filter options
 3. Tap on the "Submit" button</t>
     </r>
@@ -379,7 +710,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -422,7 +753,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -441,7 +772,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-1. Tap on the filter icon
+1. Tap on the filter icon on the "Smartphones" page
 2. Select several filter options
 3. Tap on the "Submit" button
 4. Tap on the filter icon
@@ -451,28 +782,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verify if the filter options allow sorting through price </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Low to High)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -488,7 +797,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -507,35 +816,13 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-1. Tap on the filter icon
+1. Tap on the filter icon on the "Smartphones" page
 2. Select "Sort by High to Low"
 3. Tap on the "Submit" button</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verify if the filter options allow sorting through price </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(High to Low)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -551,7 +838,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -570,242 +857,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select "Sort by Low to High"
-3. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify if the filter options allow sorting through </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>name.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select "Sort by Name"
-3. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Verify if the filter options allow sorting through </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>relevance.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select "Sort by Relevance"
-3. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select several filter options
-3. Tap on the "Submit" button
-4. Tap on the filter icon
-5. Uncheck the previously selected filter parameters
-6. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
+1. Tap on the filter icon on the "Smartphones" page
 2. Select several filter options
 3. Tap on the "Submit" button
 4. Tap on the "Delete all filters" button</t>
@@ -828,7 +880,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -847,62 +899,10 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select several filter options
-3. Tap on the "Submit" button
-4. Go to a few different pages in the search</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://www.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select several filter options
-3. Tap on the "Submit" button
-4. Compare search criteria with search result</t>
-    </r>
-  </si>
-  <si>
-    <t>OS: Android 7.1.2 Nougat</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Verify if all the filter options can be deleted.</t>
+1. Tap on the filter icon on the "Smartphones" page
+2. Select "Sort by Low to High"
+3. Tap on the "Submit" button</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1385,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1450,7 +1450,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -1554,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1577,10 +1577,10 @@
         <v>43366.495139120372</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -1629,10 +1629,10 @@
         <v>43366.504861458336</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -1684,7 +1684,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1779,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,7 +1829,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>48</v>
@@ -1844,7 +1844,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -1855,7 +1855,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>47</v>
@@ -1870,7 +1870,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>49</v>
@@ -1896,7 +1896,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1904,10 +1904,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>50</v>
@@ -1922,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1930,10 +1930,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>51</v>
@@ -1948,7 +1948,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1956,10 +1956,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>52</v>
@@ -1974,7 +1974,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1982,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>53</v>
@@ -2000,7 +2000,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>54</v>
@@ -2026,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -2037,7 +2037,7 @@
         <v>45</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>55</v>
@@ -2052,7 +2052,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -2060,10 +2060,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>56</v>
@@ -2078,7 +2078,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>57</v>
@@ -2104,7 +2104,7 @@
         <v>8</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -2115,7 +2115,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>58</v>
@@ -2130,7 +2130,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Task.Mobile/Amazon.xlsx
+++ b/Task.Mobile/Amazon.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C465B1F2-63F3-4996-9ABA-56445BB8F9F7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8925" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -79,47 +80,6 @@
     <t>Check that it is possible to close the camera search mode using the close icon</t>
   </si>
   <si>
-    <t>Pre conditions: Amazon Shopping app should be installed on the device
-Steps:
-1. Open Amazon Shopping
-2. Tap on the camera icon in the search field
-3. Press "Continue" button in the opened page
-4. Press "Continue" button in the opened page
-5. Press "Allow" in the opened window.</t>
-  </si>
-  <si>
-    <t>Pre conditions: Amazon Shopping app should be installed on the device
-Steps:
-1. Open Amazon Shopping
-2. Tap on the camera icon in the search field
-3. Press "Continue" button in the opened page
-4. Press "Continue" button in the opened page
-5. Press "Disallow" in the opened window.</t>
-  </si>
-  <si>
-    <t>1. Amazon Shopping should be opened
-2. The camera search mode should request permission to use the camera on a new page
-3. The camera search mode should request permission to use the camera on a new page
-4. The camera search mode should request permission to use the camera in the "Scan products or baracodes with your phone's camera" window
-5. The camera search mode should be opened</t>
-  </si>
-  <si>
-    <t>1. Amazon Shopping should be opened
-2. The camera search mode should request permission to use the camera on a new page
-3. The camera search mode should request permission to use the camera on a new page
-4. The camera search mode should request permission to use the camera in the "Scan products or baracodes with your phone's camera" window
-5. The user should be returned to the "Scan products and barcodes with your phone's camera" window</t>
-  </si>
-  <si>
-    <t>Pre conditions: Amazon Shopping app should be installed on the device with permission on the using camera
-Steps:
-1. Open Amazon Shopping
-2. Tap on the camera icon in the search field
-3. Tap on the "See more" menu
-4. Tap on the "Product search" icon
-5. Point the camera at any single subject and tap on the "Start" button.</t>
-  </si>
-  <si>
     <t>1. Amazon Shopping should be opened
 2. The camera search mode should be opened
 3. Menu should be opened
@@ -141,32 +101,6 @@
 5. Search results should be matched the subject on the photo</t>
   </si>
   <si>
-    <t>Pre conditions: Amazon Shopping app should be installed on the device with permission on the using camera.
-Steps:
-1. Open Amazon Shopping
-2. Tap on the camera icon in the search field
-3. Tap on the "See more" menu
-4. Tap on the "Smilecode scanner" icon
-5. Point the camera at any single subject and tap on the "Start" button.</t>
-  </si>
-  <si>
-    <t>Pre conditions: Amazon Shopping app should be installed on the device with permission on the using camera.
-Steps:
-1. Open Amazon Shopping
-2. Tap on the camera icon in the search field
-3. Tap on the "See more" menu
-4. Tap on the "Barcode scanner" icon
-5. Point the camera at any single subject and tap on the "Start" button.</t>
-  </si>
-  <si>
-    <t>Pre conditions: Amazon Shopping app should be installed on the device with permission on the using camera.
-Steps:
-1. Open Amazon Shopping
-2. Tap on the camera icon in the search field
-3. Point the camera at any single subject and use Spread gesture for zoom in
-4. Point the camera at any single subject and use "Pinch" gesture for zoom out</t>
-  </si>
-  <si>
     <t>1. Amazon Shopping should be opened
 2. The camera search mode should be opened
 3. "Spread" gesture should zoom in the subject
@@ -178,46 +112,15 @@
 3. "Flash" on the phone should be activated</t>
   </si>
   <si>
-    <t>Pre conditions: Amazon Shopping app should be installed on the device with permission on the using camera.
-Steps:
-1. Open Amazon Shopping
-2. Tap on the camera icon in the search field
-3. Tap on the "Flash" sign on the display</t>
-  </si>
-  <si>
-    <t>Pre conditions: Amazon Shopping app should be installed on the device with permission on the using camera.
-Steps:
-1. Open Amazon Shopping
-2. Tap on the camera icon in the search field
-3. Point the camera at any single subject and tap on the "Start" button.
-4. Tap on the "Stop" button</t>
-  </si>
-  <si>
     <t>1. Amazon Shopping should be opened
 2. The camera search mode should be opened
 3. The application should begin to search for matches
 4. The application should stop the search operation</t>
   </si>
   <si>
-    <t>Pre conditions: Amazon Shopping app should be installed on the device with permission on the using camera.
-Steps:
-1. Open Amazon Shopping
-2. Tap on the camera icon in the search field
-3. Tap on the close sign on the display</t>
-  </si>
-  <si>
     <t>1. Amazon Shopping should be opened
 2. The camera search mode should be opened
 3. The camera search mode should be closed</t>
-  </si>
-  <si>
-    <t>Pre conditions: Amazon Shopping app should be installed on the device with permission on the using camera. Photo of the desired subject should be on the phone
-Steps:
-1. Open Amazon Shopping
-2. Tap on the camera icon in the search field
-3. Tap on the photo icon
-4. Select a photo with an object of desire
-5. Check the results</t>
   </si>
   <si>
     <t>1."Amazon Shopping" should be opened
@@ -403,6 +306,104 @@
     <t>Verify if all the filter options can be deleted.</t>
   </si>
   <si>
+    <t>1. Amazon Shopping should be opened
+2. The camera search mode should request permission to use the camera on a new page
+3. The camera search mode should request permission to use the camera on a new page
+4. The camera search mode should request permission to use the camera in the "Scan products or barcodes with your phone's camera" window
+5. The user should be returned to the "Scan products and barcodes with your phone's camera" window</t>
+  </si>
+  <si>
+    <t>1. Amazon Shopping should be opened
+2. The camera search mode should request permission to use the camera on a new page
+3. The camera search mode should request permission to use the camera on a new page
+4. The camera search mode should request permission to use the camera in the "Scan products or barcodes with your phone's camera" window
+5. The camera search mode should be opened</t>
+  </si>
+  <si>
+    <t>Preconditions: Amazon Shopping app should be installed on the device
+Steps:
+1. Open Amazon Shopping
+2. Tap on the camera icon in the search field
+3. Press "Continue" button in the opened page
+4. Press "Continue" button in the opened page
+5. Press "Allow" in the opened window.</t>
+  </si>
+  <si>
+    <t>Preconditions: Amazon Shopping app should be installed on the device
+Steps:
+1. Open Amazon Shopping
+2. Tap on the camera icon in the search field
+3. Press "Continue" button in the opened page
+4. Press "Continue" button in the opened page
+5. Press "Disallow" in the opened window.</t>
+  </si>
+  <si>
+    <t>Preconditions: Amazon Shopping app should be installed on the device with permission on the using camera
+Steps:
+1. Open Amazon Shopping
+2. Tap on the camera icon in the search field
+3. Tap on the "See more" menu
+4. Tap on the "Product search" icon
+5. Point the camera at any single subject and tap on the "Start" button.</t>
+  </si>
+  <si>
+    <t>Preconditions: Amazon Shopping app should be installed on the device with permission on the using camera. Photo of the desired subject should be on the phone
+Steps:
+1. Open Amazon Shopping
+2. Tap on the camera icon in the search field
+3. Tap on the photo icon
+4. Select a photo with an object of desire
+5. Check the results</t>
+  </si>
+  <si>
+    <t>Preconditions: Amazon Shopping app should be installed on the device with permission on the using camera.
+Steps:
+1. Open Amazon Shopping
+2. Tap on the camera icon in the search field
+3. Tap on the close sign on the display</t>
+  </si>
+  <si>
+    <t>Preconditions: Amazon Shopping app should be installed on the device with permission on the using camera.
+Steps:
+1. Open Amazon Shopping
+2. Tap on the camera icon in the search field
+3. Point the camera at any single subject and tap on the "Start" button.
+4. Tap on the "Stop" button</t>
+  </si>
+  <si>
+    <t>Preconditions: Amazon Shopping app should be installed on the device with permission on the using camera.
+Steps:
+1. Open Amazon Shopping
+2. Tap on the camera icon in the search field
+3. Tap on the "Flash" sign on the display</t>
+  </si>
+  <si>
+    <t>Preconditions: Amazon Shopping app should be installed on the device with permission on the using camera.
+Steps:
+1. Open Amazon Shopping
+2. Tap on the camera icon in the search field
+3. Tap on the "See more" menu
+4. Tap on the "Smilecode scanner" icon
+5. Point the camera at any single subject and tap on the "Start" button.</t>
+  </si>
+  <si>
+    <t>Preconditions: Amazon Shopping app should be installed on the device with permission on the using camera.
+Steps:
+1. Open Amazon Shopping
+2. Tap on the camera icon in the search field
+3. Point the camera at any single subject and use Spread gesture for zoom in
+4. Point the camera at any single subject and use "Pinch" gesture for zoom out</t>
+  </si>
+  <si>
+    <t>Preconditions: Amazon Shopping app should be installed on the device with permission on the using camera.
+Steps:
+1. Open Amazon Shopping
+2. Tap on the camera icon in the search field
+3. Tap on the "See more" menu
+4. Tap on the "Barcode scanner" icon
+5. Point the camera at any single subject and tap on the "Start" button.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -419,7 +420,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -438,8 +439,8 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-1. Tap on the filter icon
-2. Select "Sort by Relevance"
+1. Tap on the filter icon on the "Smartphones" page
+2. Select several filter options
 3. Tap on the "Submit" button</t>
     </r>
   </si>
@@ -460,7 +461,94 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Look at the amount of smartphones at the bottom of the page
+2. Tap on the filter icon
+3. Select several filter options
+4. Tap on the "Submit" button
+5. Compare the amount of smartphones before and after filtering.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Tap on the filter icon on the "Smartphones" page
+2. Select several filter options
+3. Tap on the "Submit" button
+4. Tap on the filter icon
+5. Select several filter options
+6. Tap on the "Submit" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -500,48 +588,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon on the "Smartphones" page
-2. Select "Sort by Name"
-3. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -585,7 +632,49 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Tap on the filter icon on the "Smartphones" page
+2. Select several filter options
+3. Tap on the "Submit" button
+4. Tap on the "Delete all filters" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -627,7 +716,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -669,7 +758,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/  opened on the smartphones page
 </t>
     </r>
     <r>
@@ -688,8 +777,49 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
+1. Tap on the filter icon
+2. Select "Sort by Relevance"
+3. Tap on the "Submit" button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Pre conditions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 1. Tap on the filter icon on the "Smartphones" page
-2. Select several filter options
+2. Select "Sort by Low to High"
 3. Tap on the "Submit" button</t>
     </r>
   </si>
@@ -710,94 +840,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Look at the amount of smartphones at the bottom of the page
-2. Tap on the filter icon
-3. Select several filter options
-4. Tap on the "Submit" button
-5. Compare the amount of smartphones before and after filtering.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon on the "Smartphones" page
-2. Select several filter options
-3. Tap on the "Submit" button
-4. Tap on the filter icon
-5. Select several filter options
-6. Tap on the "Submit" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -838,7 +881,7 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
+The website https://m.mobilluck.com.ua/katalog/mobila/f_3_13_Smartfon/ opened on the smartphones page
 </t>
     </r>
     <r>
@@ -858,49 +901,7 @@
       </rPr>
       <t xml:space="preserve">
 1. Tap on the filter icon on the "Smartphones" page
-2. Select several filter options
-3. Tap on the "Submit" button
-4. Tap on the "Delete all filters" button</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Pre conditions:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-The website https://m.mobilluck.com.ua/ opened on the smartphones page
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Steps:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Tap on the filter icon on the "Smartphones" page
-2. Select "Sort by Low to High"
+2. Select "Sort by Name"
 3. Tap on the "Submit" button</t>
     </r>
   </si>
@@ -908,7 +909,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1104,7 +1105,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input 2" xfId="1"/>
+    <cellStyle name="Input 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1382,11 +1383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1435,10 +1436,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -1450,7 +1451,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,10 +1462,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -1476,7 +1477,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1487,10 +1488,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -1502,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -1513,10 +1514,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -1528,7 +1529,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -1539,10 +1540,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -1554,7 +1555,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,10 +1566,10 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -1577,10 +1578,10 @@
         <v>43366.495139120372</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1591,10 +1592,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -1606,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="150" x14ac:dyDescent="0.25">
@@ -1617,10 +1618,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -1629,10 +1630,10 @@
         <v>43366.504861458336</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1643,10 +1644,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
@@ -1658,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="165" x14ac:dyDescent="0.25">
@@ -1669,10 +1670,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -1684,7 +1685,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1776,19 +1777,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" customWidth="1"/>
     <col min="3" max="3" width="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="102" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.85546875" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -1818,21 +1819,21 @@
         <v>6</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>7</v>
@@ -1844,21 +1845,21 @@
         <v>8</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>7</v>
@@ -1870,21 +1871,21 @@
         <v>8</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>7</v>
@@ -1896,21 +1897,21 @@
         <v>8</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>7</v>
@@ -1922,21 +1923,21 @@
         <v>8</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>7</v>
@@ -1948,21 +1949,21 @@
         <v>8</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>7</v>
@@ -1974,21 +1975,21 @@
         <v>8</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>7</v>
@@ -2000,21 +2001,21 @@
         <v>8</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>7</v>
@@ -2026,21 +2027,21 @@
         <v>8</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>7</v>
@@ -2052,21 +2053,21 @@
         <v>8</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>7</v>
@@ -2078,21 +2079,21 @@
         <v>8</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>7</v>
@@ -2104,21 +2105,21 @@
         <v>8</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>7</v>
@@ -2130,7 +2131,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
